--- a/biology/Botanique/Alfred_Nomblot/Alfred_Nomblot.xlsx
+++ b/biology/Botanique/Alfred_Nomblot/Alfred_Nomblot.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Nomblot est un pépiniériste et un homme politique français né le 25 janvier 1868 au Creusot (Saône-et-Loire) et mort le 5 mars 1948 à Bourg-la-Reine (Hauts-de-Seine)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Nomblot est un pépiniériste et un homme politique français né le 25 janvier 1868 au Creusot (Saône-et-Loire) et mort le 5 mars 1948 à Bourg-la-Reine (Hauts-de-Seine).
 </t>
         </is>
       </c>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alfred Nomblot est fils d'un marchand, puis garde particulier à Étang-sur-Arroux (Saône-et-Loire): Antoine Nomblot (1832-1893) et de son épouse Anne Duverne (1848-1903). Il a une sœur et trois frères: Léonie (1865), épouse Pioche; Charles (1875); Joseph (1877) adjoint aux pépinières Nomblot-Bruneau, et Louis (1879)[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alfred Nomblot est fils d'un marchand, puis garde particulier à Étang-sur-Arroux (Saône-et-Loire): Antoine Nomblot (1832-1893) et de son épouse Anne Duverne (1848-1903). Il a une sœur et trois frères: Léonie (1865), épouse Pioche; Charles (1875); Joseph (1877) adjoint aux pépinières Nomblot-Bruneau, et Louis (1879).
 Ingénieur horticole, il est sorti major de l'École nationale supérieure d'horticulture de Versailles, épouse Henriette Bruneau le 12 juin 1894, et devient le collaborateur de son beau-père, Désiré Bruneau, pépiniériste. En 1912, il est élu conseiller municipal. Mobilisé en 1914 comme capitaine, il finira la Première Guerre mondiale avec le grade de lieutenant-colonel.
-Député de la Seine de 1928 à 1932, inscrit au groupe des Républicains de gauche, il fait voter et obtient les crédits pour la réalisation du boulevard du Maréchal-Joffre à Bourg-la-Reine, lors d'une session de nuit avec une présence peu nombreuse de parlementaire[3].
+Député de la Seine de 1928 à 1932, inscrit au groupe des Républicains de gauche, il fait voter et obtient les crédits pour la réalisation du boulevard du Maréchal-Joffre à Bourg-la-Reine, lors d'une session de nuit avec une présence peu nombreuse de parlementaire.
 Il est membre, puis président de l'Académie d'agriculture de France en 1939. Maire de Bourg-la-Reine, de 1920 à 1940, il devient secrétaire général, puis premier président de la Société nationale d'horticulture de France.
-Il est l'oncle d'Alfred Nomblot, pépiniériste, maire de Bourg-la-Reine de 1977 à 1991, conseiller général, avec lequel il ne doit pas être confondu[4].
+Il est l'oncle d'Alfred Nomblot, pépiniériste, maire de Bourg-la-Reine de 1977 à 1991, conseiller général, avec lequel il ne doit pas être confondu.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom est donné à une rue de Bourg-la-Reine[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom est donné à une rue de Bourg-la-Reine.
 </t>
         </is>
       </c>
